--- a/Final Report/graphs.xlsx
+++ b/Final Report/graphs.xlsx
@@ -129,7 +129,7 @@
                 <a:ea typeface=""/>
                 <a:cs typeface=""/>
               </a:rPr>
-              <a:t>Small-World Generation</a:t>
+              <a:t>Scale-Free Generation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -153,7 +153,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="22229" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
@@ -163,9 +163,9 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$E$3:$E$10</c:f>
+              <c:f>[1]Sheet1!$A$3:$A$10</c:f>
               <c:numCache>
-                <c:formatCode>[$-809]General</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>250</c:v>
@@ -196,33 +196,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Sheet1!$H$3:$H$10</c:f>
+              <c:f>[1]Sheet1!$D$3:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>[$-809]General</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>1272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>10044</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>32292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>83362</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>160972</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>276117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68</c:v>
+                  <c:v>641322</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74</c:v>
+                  <c:v>2275763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -237,11 +237,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409640392"/>
-        <c:axId val="409640000"/>
+        <c:axId val="257402528"/>
+        <c:axId val="257398048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409640000"/>
+        <c:axId val="257398048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -251,7 +251,7 @@
           <c:spPr>
             <a:ln w="9528" cap="flat">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -275,7 +275,7 @@
                     <a:spcPts val="0"/>
                   </a:spcAft>
                   <a:tabLst/>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -285,7 +285,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -308,7 +308,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="[$-809]General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -316,7 +316,7 @@
           <a:noFill/>
           <a:ln w="9528" cap="flat">
             <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
@@ -337,7 +337,7 @@
                 <a:spcPts val="0"/>
               </a:spcAft>
               <a:tabLst/>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -349,12 +349,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409640392"/>
+        <c:crossAx val="257402528"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409640392"/>
+        <c:axId val="257402528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,7 +364,7 @@
           <c:spPr>
             <a:ln w="9528" cap="flat">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -388,7 +388,7 @@
                     <a:spcPts val="0"/>
                   </a:spcAft>
                   <a:tabLst/>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -398,7 +398,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -421,7 +421,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="[$-809]General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -429,7 +429,7 @@
           <a:noFill/>
           <a:ln w="9528" cap="flat">
             <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
@@ -450,7 +450,7 @@
                 <a:spcPts val="0"/>
               </a:spcAft>
               <a:tabLst/>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -462,7 +462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409640000"/>
+        <c:crossAx val="257398048"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -525,451 +525,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface=""/>
-                <a:cs typeface=""/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface=""/>
-                <a:cs typeface=""/>
-              </a:rPr>
-              <a:t>Scale-Free Generation</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="22229" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>[$-809]General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$D$3:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>[$-809]General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1272</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10044</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32292</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>83362</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>160972</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>276117</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>641322</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2275763</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="409642744"/>
-        <c:axId val="409642352"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="409642352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9528" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:tabLst/>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface=""/>
-                    <a:cs typeface=""/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFillTx/>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface=""/>
-                    <a:cs typeface=""/>
-                  </a:rPr>
-                  <a:t>Time Taken (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="[$-809]General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9528" cap="flat">
-            <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface=""/>
-                <a:cs typeface=""/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="409642744"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="409642744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9528" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:tabLst/>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface=""/>
-                    <a:cs typeface=""/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFillTx/>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface=""/>
-                    <a:cs typeface=""/>
-                  </a:rPr>
-                  <a:t>Number of Nodes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="[$-809]General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9528" cap="flat">
-            <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface=""/>
-                <a:cs typeface=""/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="409642352"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9528" cap="flat">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-        <a:lnSpc>
-          <a:spcPct val="100000"/>
-        </a:lnSpc>
-        <a:spcBef>
-          <a:spcPts val="0"/>
-        </a:spcBef>
-        <a:spcAft>
-          <a:spcPts val="0"/>
-        </a:spcAft>
-        <a:tabLst/>
-        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Calibri"/>
-          <a:ea typeface=""/>
-          <a:cs typeface=""/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1054,7 +609,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1080,7 +635,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]Sheet1!$B$3:$B$12</c:f>
+              <c:f>[2]Sheet1!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1119,7 +674,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]Sheet1!$I$3:$I$12</c:f>
+              <c:f>[2]Sheet1!$I$3:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1166,11 +721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412382808"/>
-        <c:axId val="412382416"/>
+        <c:axId val="258203112"/>
+        <c:axId val="257472632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412382808"/>
+        <c:axId val="258203112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,10 +735,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1197,7 +749,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1210,7 +762,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Mean Number of cigarettes smoked per day</a:t>
                 </a:r>
               </a:p>
@@ -1230,7 +782,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1254,10 +806,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1268,7 +817,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1283,12 +832,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412382416"/>
+        <c:crossAx val="257472632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412382416"/>
+        <c:axId val="257472632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,10 +847,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1315,7 +861,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1328,7 +874,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>% Non-smokers in Network</a:t>
                 </a:r>
               </a:p>
@@ -1348,7 +894,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1372,10 +918,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1386,7 +929,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1401,7 +944,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412382808"/>
+        <c:crossAx val="258203112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1438,6 +981,451 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:rPr>
+              <a:t>Small-World Generation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="257365776"/>
+        <c:axId val="257298944"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="257298944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9528" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:tabLst/>
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface=""/>
+                    <a:cs typeface=""/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface=""/>
+                    <a:cs typeface=""/>
+                  </a:rPr>
+                  <a:t>Time Taken (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9528" cap="flat">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="257365776"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="257365776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9528" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:tabLst/>
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface=""/>
+                    <a:cs typeface=""/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface=""/>
+                    <a:cs typeface=""/>
+                  </a:rPr>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9528" cap="flat">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="257298944"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9528" cap="flat">
+      <a:solidFill>
+        <a:srgbClr val="D9D9D9"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+        <a:lnSpc>
+          <a:spcPct val="100000"/>
+        </a:lnSpc>
+        <a:spcBef>
+          <a:spcPts val="0"/>
+        </a:spcBef>
+        <a:spcAft>
+          <a:spcPts val="0"/>
+        </a:spcAft>
+        <a:tabLst/>
+        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface=""/>
+          <a:cs typeface=""/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1524,7 +1512,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="22229" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
@@ -1536,7 +1524,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$M$3:$M$10</c:f>
               <c:numCache>
-                <c:formatCode>[$-809]General</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>250</c:v>
@@ -1569,7 +1557,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$P$3:$P$10</c:f>
               <c:numCache>
-                <c:formatCode>[$-809]General</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>61515</c:v>
@@ -1608,11 +1596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409641568"/>
-        <c:axId val="409641176"/>
+        <c:axId val="257460064"/>
+        <c:axId val="257459680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409641176"/>
+        <c:axId val="257459680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +1610,7 @@
           <c:spPr>
             <a:ln w="9528" cap="flat">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -1646,7 +1634,7 @@
                     <a:spcPts val="0"/>
                   </a:spcAft>
                   <a:tabLst/>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1656,7 +1644,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1679,7 +1667,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="[$-809]General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1687,7 +1675,7 @@
           <a:noFill/>
           <a:ln w="9528" cap="flat">
             <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
@@ -1708,7 +1696,7 @@
                 <a:spcPts val="0"/>
               </a:spcAft>
               <a:tabLst/>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1720,12 +1708,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409641568"/>
+        <c:crossAx val="257460064"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409641568"/>
+        <c:axId val="257460064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1723,7 @@
           <c:spPr>
             <a:ln w="9528" cap="flat">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -1759,7 +1747,7 @@
                     <a:spcPts val="0"/>
                   </a:spcAft>
                   <a:tabLst/>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1769,7 +1757,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1792,7 +1780,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="[$-809]General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1800,7 +1788,7 @@
           <a:noFill/>
           <a:ln w="9528" cap="flat">
             <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
@@ -1821,7 +1809,7 @@
                 <a:spcPts val="0"/>
               </a:spcAft>
               <a:tabLst/>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1833,7 +1821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409641176"/>
+        <c:crossAx val="257459680"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1973,9 +1961,14 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="34925"/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]Sheet1!$A$3:$A$26</c:f>
+              <c:f>[3]Sheet1!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2056,7 +2049,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Sheet1!$I$3:$I$26</c:f>
+              <c:f>[3]Sheet1!$I$3:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2145,11 +2138,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="410128720"/>
-        <c:axId val="410129112"/>
+        <c:axId val="257825760"/>
+        <c:axId val="257821280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="410129112"/>
+        <c:axId val="257821280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,7 +2152,7 @@
           <c:spPr>
             <a:ln w="9528" cap="flat">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -2183,7 +2176,7 @@
                     <a:spcPts val="0"/>
                   </a:spcAft>
                   <a:tabLst/>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2193,7 +2186,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2224,7 +2217,7 @@
           <a:noFill/>
           <a:ln w="9528" cap="flat">
             <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
@@ -2245,7 +2238,7 @@
                 <a:spcPts val="0"/>
               </a:spcAft>
               <a:tabLst/>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -2257,12 +2250,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410128720"/>
+        <c:crossAx val="257825760"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="410128720"/>
+        <c:axId val="257825760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,9 +2263,9 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9528" cap="flat">
+            <a:ln w="9525" cap="flat">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -2296,7 +2289,7 @@
                     <a:spcPts val="0"/>
                   </a:spcAft>
                   <a:tabLst/>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2306,7 +2299,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                  <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2337,7 +2330,7 @@
           <a:noFill/>
           <a:ln w="9528" cap="flat">
             <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
@@ -2358,7 +2351,7 @@
                 <a:spcPts val="0"/>
               </a:spcAft>
               <a:tabLst/>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -2370,7 +2363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410129112"/>
+        <c:crossAx val="257821280"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2523,7 +2516,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet2!$C$1</c:f>
+              <c:f>[3]Sheet2!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2533,7 +2526,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2559,7 +2552,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet2!$C$2:$C$25</c:f>
+              <c:f>[3]Sheet2!$C$2:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2645,7 +2638,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[2]Sheet2!$I$1</c:f>
+              <c:f>[3]Sheet2!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2655,7 +2648,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2681,7 +2674,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>[2]Sheet2!$I$2:$I$25</c:f>
+              <c:f>[3]Sheet2!$I$2:$I$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -2772,11 +2765,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="411430688"/>
-        <c:axId val="412335224"/>
+        <c:axId val="257855784"/>
+        <c:axId val="257855392"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="412335224"/>
+        <c:axId val="257855392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,10 +2779,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2803,7 +2793,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2816,7 +2806,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Ratio / Percentage</a:t>
                 </a:r>
               </a:p>
@@ -2836,7 +2826,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2860,10 +2850,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2874,7 +2861,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2889,12 +2876,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411430688"/>
+        <c:crossAx val="257855784"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="411430688"/>
+        <c:axId val="257855784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2904,10 +2891,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2921,7 +2905,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2934,7 +2918,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Simulation Number</a:t>
                 </a:r>
               </a:p>
@@ -2954,7 +2938,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2977,10 +2961,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2991,7 +2972,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3006,7 +2987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412335224"/>
+        <c:crossAx val="257855392"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3037,7 +3018,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3103,6 +3084,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3175,7 +3157,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3281,11 +3263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412333656"/>
-        <c:axId val="412334440"/>
+        <c:axId val="257856568"/>
+        <c:axId val="257856960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412333656"/>
+        <c:axId val="257856568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3295,10 +3277,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3312,7 +3291,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3325,14 +3304,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Number</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> of Steps 'Giving up' required to become a non-smoker</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3350,7 +3329,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3374,10 +3353,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3388,7 +3364,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3403,12 +3379,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412334440"/>
+        <c:crossAx val="257856960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412334440"/>
+        <c:axId val="257856960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3418,10 +3394,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3435,7 +3408,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3448,7 +3421,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>% Non-smokers</a:t>
                 </a:r>
               </a:p>
@@ -3468,7 +3441,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3492,10 +3465,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3506,7 +3476,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3521,7 +3491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412333656"/>
+        <c:crossAx val="257856568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3644,7 +3614,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="22229" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
@@ -3656,7 +3626,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$I$3:$I$10</c:f>
               <c:numCache>
-                <c:formatCode>[$-809]General</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>73</c:v>
@@ -3689,7 +3659,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$L$3:$L$10</c:f>
               <c:numCache>
-                <c:formatCode>[$-809]General</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>27123</c:v>
@@ -3728,11 +3698,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409639216"/>
-        <c:axId val="410131072"/>
+        <c:axId val="257858136"/>
+        <c:axId val="257857744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="410131072"/>
+        <c:axId val="257857744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3742,7 +3712,7 @@
           <c:spPr>
             <a:ln w="9528" cap="flat">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -3776,7 +3746,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3799,7 +3769,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="[$-809]General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3807,7 +3777,7 @@
           <a:noFill/>
           <a:ln w="9528" cap="flat">
             <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
@@ -3828,7 +3798,7 @@
                 <a:spcPts val="0"/>
               </a:spcAft>
               <a:tabLst/>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -3840,12 +3810,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409639216"/>
+        <c:crossAx val="257858136"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409639216"/>
+        <c:axId val="257858136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3855,7 +3825,7 @@
           <c:spPr>
             <a:ln w="9528" cap="flat">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -3889,7 +3859,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3912,7 +3882,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="[$-809]General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3920,7 +3890,7 @@
           <a:noFill/>
           <a:ln w="9528" cap="flat">
             <a:solidFill>
-              <a:srgbClr val="D9D9D9"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:prstDash val="solid"/>
             <a:round/>
@@ -3941,7 +3911,7 @@
                 <a:spcPts val="0"/>
               </a:spcAft>
               <a:tabLst/>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -3953,7 +3923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410131072"/>
+        <c:crossAx val="257857744"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3973,9 +3943,7 @@
       <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9528" cap="flat">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
+      <a:noFill/>
       <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
@@ -5700,15 +5668,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>605851</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133353</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="13424474" cy="7058025"/>
+    <xdr:ext cx="13424478" cy="7067547"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5725,17 +5693,22 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>605847</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="13424478" cy="7067547"/>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 1"/>
+        <xdr:cNvPr id="12" name="Chart 11"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5751,23 +5724,18 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="13424474" cy="7058025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5783,13 +5751,13 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1264</xdr:rowOff>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>48889</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="13420725" cy="7066286"/>
     <xdr:graphicFrame macro="">
@@ -5813,10 +5781,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="13420725" cy="7077075"/>
     <xdr:graphicFrame macro="">
@@ -5840,10 +5808,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="13401675" cy="7077075"/>
     <xdr:graphicFrame macro="">
@@ -5867,15 +5835,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5899,10 +5867,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>607298</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185912</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>426323</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>119237</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="13432552" cy="7062613"/>
     <xdr:graphicFrame macro="">
@@ -6156,407 +6124,90 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="A3">
-            <v>19.399999999999999</v>
+          <cell r="B3">
+            <v>5</v>
           </cell>
           <cell r="I3">
-            <v>55</v>
+            <v>43.9</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="A4">
-            <v>23.5</v>
+          <cell r="B4">
+            <v>12</v>
           </cell>
           <cell r="I4">
-            <v>74.5</v>
+            <v>58.67</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="A5">
-            <v>20.399999999999999</v>
+          <cell r="B5">
+            <v>15</v>
           </cell>
           <cell r="I5">
-            <v>75</v>
+            <v>58.2</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="A6">
-            <v>20.9</v>
+          <cell r="B6">
+            <v>18</v>
           </cell>
           <cell r="I6">
-            <v>73.5</v>
+            <v>80.099999999999994</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="A7">
-            <v>17.3</v>
+          <cell r="B7">
+            <v>20</v>
           </cell>
           <cell r="I7">
-            <v>73.5</v>
+            <v>87.24</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="A8">
+          <cell r="B8">
             <v>23</v>
           </cell>
           <cell r="I8">
-            <v>73.5</v>
+            <v>86.7</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="A9">
-            <v>42.3</v>
+          <cell r="B9">
+            <v>25</v>
           </cell>
           <cell r="I9">
-            <v>65.900000000000006</v>
+            <v>96.4</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="A10">
-            <v>40.299999999999997</v>
+          <cell r="B10">
+            <v>27</v>
           </cell>
           <cell r="I10">
-            <v>48</v>
+            <v>93.9</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="A11">
-            <v>47.9</v>
+          <cell r="B11">
+            <v>30</v>
           </cell>
           <cell r="I11">
-            <v>49.5</v>
+            <v>85.2</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="A12">
-            <v>36.700000000000003</v>
+          <cell r="B12">
+            <v>34</v>
           </cell>
           <cell r="I12">
-            <v>68.400000000000006</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>44.9</v>
-          </cell>
-          <cell r="I13">
-            <v>68.8</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>38.299999999999997</v>
-          </cell>
-          <cell r="I14">
-            <v>66.400000000000006</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>59.7</v>
-          </cell>
-          <cell r="I15">
-            <v>81.099999999999994</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>58.2</v>
-          </cell>
-          <cell r="I16">
-            <v>63.3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>61.7</v>
-          </cell>
-          <cell r="I17">
-            <v>87.2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>53.6</v>
-          </cell>
-          <cell r="I18">
-            <v>79.099999999999994</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>60.2</v>
-          </cell>
-          <cell r="I19">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>56.6</v>
-          </cell>
-          <cell r="I20">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>80</v>
-          </cell>
-          <cell r="I21">
-            <v>68.400000000000006</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>77.5</v>
-          </cell>
-          <cell r="I22">
-            <v>43.3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>77.599999999999994</v>
-          </cell>
-          <cell r="I23">
-            <v>63.3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>79.099999999999994</v>
-          </cell>
-          <cell r="I24">
-            <v>31.099999999999994</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>78.099999999999994</v>
-          </cell>
-          <cell r="I25">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>77.599999999999994</v>
-          </cell>
-          <cell r="I26">
-            <v>76.5</v>
+            <v>88.8</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>Ratio of Smokers to Giving Up</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>% Non-Smokers at End</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="C2">
-            <v>0.2711598746081505</v>
-          </cell>
-          <cell r="I2">
-            <v>73.5</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>0.29870129870129869</v>
-          </cell>
-          <cell r="I3">
-            <v>73.5</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>0.38632162661737518</v>
-          </cell>
-          <cell r="I4">
-            <v>73.5</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>0.58789625360230535</v>
-          </cell>
-          <cell r="I5">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>0.62074554294975681</v>
-          </cell>
-          <cell r="I6">
-            <v>66.400000000000006</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>0.86761229314420818</v>
-          </cell>
-          <cell r="I7">
-            <v>68.400000000000006</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>0.94</v>
-          </cell>
-          <cell r="I8">
-            <v>74.5</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>0.98898678414096919</v>
-          </cell>
-          <cell r="I9">
-            <v>68.8</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>1.304147465437788</v>
-          </cell>
-          <cell r="I10">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>1.8108108108108107</v>
-          </cell>
-          <cell r="I11">
-            <v>79.099999999999994</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>2.0337837837837838</v>
-          </cell>
-          <cell r="I12">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>2.0382978723404253</v>
-          </cell>
-          <cell r="I13">
-            <v>49.5</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>2.2298850574712645</v>
-          </cell>
-          <cell r="I14">
-            <v>55</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>2.3988095238095237</v>
-          </cell>
-          <cell r="I15">
-            <v>48</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>3.4642857142857144</v>
-          </cell>
-          <cell r="I16">
-            <v>76.5</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>4.0326797385620914</v>
-          </cell>
-          <cell r="I17">
-            <v>87.2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>4.3759398496240598</v>
-          </cell>
-          <cell r="I18">
-            <v>63.3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>4.5144508670520223</v>
-          </cell>
-          <cell r="I19">
-            <v>73</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>4.8620689655172411</v>
-          </cell>
-          <cell r="I20">
-            <v>65.900000000000006</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>5.7318840579710137</v>
-          </cell>
-          <cell r="I21">
-            <v>31.099999999999994</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>7.3703703703703711</v>
-          </cell>
-          <cell r="I22">
-            <v>81.099999999999994</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>8</v>
-          </cell>
-          <cell r="I23">
-            <v>63.3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>10.854341736694678</v>
-          </cell>
-          <cell r="I24">
-            <v>43.3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>26.666666666666668</v>
-          </cell>
-          <cell r="I25">
-            <v>68.400000000000006</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6567,90 +6218,407 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="B3">
-            <v>5</v>
+          <cell r="A3">
+            <v>19.399999999999999</v>
           </cell>
           <cell r="I3">
-            <v>43.9</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="B4">
-            <v>12</v>
+          <cell r="A4">
+            <v>23.5</v>
           </cell>
           <cell r="I4">
-            <v>58.67</v>
+            <v>74.5</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="B5">
-            <v>15</v>
+          <cell r="A5">
+            <v>20.399999999999999</v>
           </cell>
           <cell r="I5">
+            <v>75</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>20.9</v>
+          </cell>
+          <cell r="I6">
+            <v>73.5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>17.3</v>
+          </cell>
+          <cell r="I7">
+            <v>73.5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>23</v>
+          </cell>
+          <cell r="I8">
+            <v>73.5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>42.3</v>
+          </cell>
+          <cell r="I9">
+            <v>65.900000000000006</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>40.299999999999997</v>
+          </cell>
+          <cell r="I10">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>47.9</v>
+          </cell>
+          <cell r="I11">
+            <v>49.5</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>36.700000000000003</v>
+          </cell>
+          <cell r="I12">
+            <v>68.400000000000006</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>44.9</v>
+          </cell>
+          <cell r="I13">
+            <v>68.8</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>38.299999999999997</v>
+          </cell>
+          <cell r="I14">
+            <v>66.400000000000006</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>59.7</v>
+          </cell>
+          <cell r="I15">
+            <v>81.099999999999994</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
             <v>58.2</v>
           </cell>
+          <cell r="I16">
+            <v>63.3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>61.7</v>
+          </cell>
+          <cell r="I17">
+            <v>87.2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>53.6</v>
+          </cell>
+          <cell r="I18">
+            <v>79.099999999999994</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>60.2</v>
+          </cell>
+          <cell r="I19">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>56.6</v>
+          </cell>
+          <cell r="I20">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>80</v>
+          </cell>
+          <cell r="I21">
+            <v>68.400000000000006</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>77.5</v>
+          </cell>
+          <cell r="I22">
+            <v>43.3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>77.599999999999994</v>
+          </cell>
+          <cell r="I23">
+            <v>63.3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>79.099999999999994</v>
+          </cell>
+          <cell r="I24">
+            <v>31.099999999999994</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>78.099999999999994</v>
+          </cell>
+          <cell r="I25">
+            <v>73</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>77.599999999999994</v>
+          </cell>
+          <cell r="I26">
+            <v>76.5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>Ratio of Smokers to Giving Up</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>% Non-Smokers at End</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="C2">
+            <v>0.2711598746081505</v>
+          </cell>
+          <cell r="I2">
+            <v>73.5</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3">
+            <v>0.29870129870129869</v>
+          </cell>
+          <cell r="I3">
+            <v>73.5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>0.38632162661737518</v>
+          </cell>
+          <cell r="I4">
+            <v>73.5</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>0.58789625360230535</v>
+          </cell>
+          <cell r="I5">
+            <v>75</v>
+          </cell>
         </row>
         <row r="6">
-          <cell r="B6">
-            <v>18</v>
+          <cell r="C6">
+            <v>0.62074554294975681</v>
           </cell>
           <cell r="I6">
-            <v>80.099999999999994</v>
+            <v>66.400000000000006</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="B7">
-            <v>20</v>
+          <cell r="C7">
+            <v>0.86761229314420818</v>
           </cell>
           <cell r="I7">
-            <v>87.24</v>
+            <v>68.400000000000006</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="B8">
-            <v>23</v>
+          <cell r="C8">
+            <v>0.94</v>
           </cell>
           <cell r="I8">
-            <v>86.7</v>
+            <v>74.5</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="B9">
-            <v>25</v>
+          <cell r="C9">
+            <v>0.98898678414096919</v>
           </cell>
           <cell r="I9">
-            <v>96.4</v>
+            <v>68.8</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="B10">
-            <v>27</v>
+          <cell r="C10">
+            <v>1.304147465437788</v>
           </cell>
           <cell r="I10">
-            <v>93.9</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="B11">
-            <v>30</v>
+          <cell r="C11">
+            <v>1.8108108108108107</v>
           </cell>
           <cell r="I11">
-            <v>85.2</v>
+            <v>79.099999999999994</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="B12">
-            <v>34</v>
+          <cell r="C12">
+            <v>2.0337837837837838</v>
           </cell>
           <cell r="I12">
-            <v>88.8</v>
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>2.0382978723404253</v>
+          </cell>
+          <cell r="I13">
+            <v>49.5</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>2.2298850574712645</v>
+          </cell>
+          <cell r="I14">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>2.3988095238095237</v>
+          </cell>
+          <cell r="I15">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>3.4642857142857144</v>
+          </cell>
+          <cell r="I16">
+            <v>76.5</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>4.0326797385620914</v>
+          </cell>
+          <cell r="I17">
+            <v>87.2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>4.3759398496240598</v>
+          </cell>
+          <cell r="I18">
+            <v>63.3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>4.5144508670520223</v>
+          </cell>
+          <cell r="I19">
+            <v>73</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>4.8620689655172411</v>
+          </cell>
+          <cell r="I20">
+            <v>65.900000000000006</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>5.7318840579710137</v>
+          </cell>
+          <cell r="I21">
+            <v>31.099999999999994</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>7.3703703703703711</v>
+          </cell>
+          <cell r="I22">
+            <v>81.099999999999994</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>8</v>
+          </cell>
+          <cell r="I23">
+            <v>63.3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>10.854341736694678</v>
+          </cell>
+          <cell r="I24">
+            <v>43.3</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>26.666666666666668</v>
+          </cell>
+          <cell r="I25">
+            <v>68.400000000000006</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7003,12 +6971,264 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Final Report/graphs.xlsx
+++ b/Final Report/graphs.xlsx
@@ -237,11 +237,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257402528"/>
-        <c:axId val="257398048"/>
+        <c:axId val="293824232"/>
+        <c:axId val="293848424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257398048"/>
+        <c:axId val="293848424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -277,7 +277,7 @@
                   <a:tabLst/>
                   <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                     <a:ea typeface=""/>
@@ -287,7 +287,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
@@ -339,7 +339,7 @@
               <a:tabLst/>
               <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface=""/>
@@ -349,12 +349,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257402528"/>
+        <c:crossAx val="293824232"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257402528"/>
+        <c:axId val="293824232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -388,9 +388,9 @@
                     <a:spcPts val="0"/>
                   </a:spcAft>
                   <a:tabLst/>
-                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                     <a:ea typeface=""/>
@@ -398,9 +398,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
@@ -452,7 +452,7 @@
               <a:tabLst/>
               <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface=""/>
@@ -462,7 +462,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257398048"/>
+        <c:crossAx val="293848424"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -721,11 +721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258203112"/>
-        <c:axId val="257472632"/>
+        <c:axId val="294395336"/>
+        <c:axId val="293959704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258203112"/>
+        <c:axId val="294395336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,10 +751,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -762,7 +759,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:rPr lang="en-GB" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Mean Number of cigarettes smoked per day</a:t>
                 </a:r>
               </a:p>
@@ -784,10 +785,7 @@
               <a:pPr>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -819,10 +817,7 @@
             <a:pPr>
               <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -832,12 +827,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257472632"/>
+        <c:crossAx val="293959704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257472632"/>
+        <c:axId val="293959704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,10 +858,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -874,7 +866,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:rPr lang="en-GB" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>% Non-smokers in Network</a:t>
                 </a:r>
               </a:p>
@@ -896,10 +892,7 @@
               <a:pPr>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -931,10 +924,7 @@
             <a:pPr>
               <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -944,7 +934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258203112"/>
+        <c:crossAx val="294395336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1151,11 +1141,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257365776"/>
-        <c:axId val="257298944"/>
+        <c:axId val="294149592"/>
+        <c:axId val="294176040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257298944"/>
+        <c:axId val="294176040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,7 +1181,7 @@
                   <a:tabLst/>
                   <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                     <a:ea typeface=""/>
@@ -1201,7 +1191,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
@@ -1253,7 +1243,7 @@
               <a:tabLst/>
               <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface=""/>
@@ -1263,12 +1253,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257365776"/>
+        <c:crossAx val="294149592"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257365776"/>
+        <c:axId val="294149592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1294,7 @@
                   <a:tabLst/>
                   <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                     <a:ea typeface=""/>
@@ -1314,7 +1304,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
@@ -1366,7 +1356,7 @@
               <a:tabLst/>
               <a:defRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface=""/>
@@ -1376,7 +1366,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257298944"/>
+        <c:crossAx val="294176040"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1596,11 +1586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257460064"/>
-        <c:axId val="257459680"/>
+        <c:axId val="294201632"/>
+        <c:axId val="294218928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257459680"/>
+        <c:axId val="294218928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,7 +1626,7 @@
                   <a:tabLst/>
                   <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                     <a:ea typeface=""/>
@@ -1646,7 +1636,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
@@ -1698,7 +1688,7 @@
               <a:tabLst/>
               <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface=""/>
@@ -1708,12 +1698,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257460064"/>
+        <c:crossAx val="294201632"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257460064"/>
+        <c:axId val="294201632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,7 +1739,7 @@
                   <a:tabLst/>
                   <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                     <a:ea typeface=""/>
@@ -1759,7 +1749,7 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
@@ -1811,7 +1801,7 @@
               <a:tabLst/>
               <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface=""/>
@@ -1821,7 +1811,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257459680"/>
+        <c:crossAx val="294218928"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1914,6 +1904,450 @@
                 <a:spcPts val="0"/>
               </a:spcAft>
               <a:tabLst/>
+              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:rPr>
+              <a:t>Scale-Free Simulation Runs</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="5B9BD5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>782</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Sheet1!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>27123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92821</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>184355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>309941</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="294340608"/>
+        <c:axId val="294340216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="294340216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9528" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:tabLst/>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface=""/>
+                    <a:cs typeface=""/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface=""/>
+                    <a:cs typeface=""/>
+                  </a:rPr>
+                  <a:t>Time Taken (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9528" cap="flat">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294340608"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="294340608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9528" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" fontAlgn="auto" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:tabLst/>
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface=""/>
+                    <a:cs typeface=""/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:uFillTx/>
+                    <a:latin typeface="Calibri"/>
+                    <a:ea typeface=""/>
+                    <a:cs typeface=""/>
+                  </a:rPr>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9528" cap="flat">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr lang="en-GB" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface=""/>
+                <a:cs typeface=""/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294340216"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="9528" cap="flat">
+      <a:noFill/>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+        <a:lnSpc>
+          <a:spcPct val="100000"/>
+        </a:lnSpc>
+        <a:spcBef>
+          <a:spcPts val="0"/>
+        </a:spcBef>
+        <a:spcAft>
+          <a:spcPts val="0"/>
+        </a:spcAft>
+        <a:tabLst/>
+        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+          <a:ea typeface=""/>
+          <a:cs typeface=""/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
@@ -1963,7 +2397,7 @@
           </c:spPr>
           <c:marker>
             <c:spPr>
-              <a:ln w="34925"/>
+              <a:ln w="44450"/>
             </c:spPr>
           </c:marker>
           <c:xVal>
@@ -2138,11 +2572,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257825760"/>
-        <c:axId val="257821280"/>
+        <c:axId val="294307768"/>
+        <c:axId val="294307384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257821280"/>
+        <c:axId val="294307384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +2612,7 @@
                   <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                     <a:ea typeface=""/>
@@ -2188,7 +2622,7 @@
                 <a:r>
                   <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
@@ -2240,7 +2674,7 @@
               <a:tabLst/>
               <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface=""/>
@@ -2250,12 +2684,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257825760"/>
+        <c:crossAx val="294307768"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257825760"/>
+        <c:axId val="294307768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,7 +2725,7 @@
                   <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                     <a:ea typeface=""/>
@@ -2301,7 +2735,7 @@
                 <a:r>
                   <a:rPr lang="en-GB" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="595959"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:uFillTx/>
                     <a:latin typeface="Calibri"/>
@@ -2353,7 +2787,7 @@
               <a:tabLst/>
               <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
                 <a:ea typeface=""/>
@@ -2363,7 +2797,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257821280"/>
+        <c:crossAx val="294307384"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2425,7 +2859,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2650,7 +3084,9 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2765,11 +3201,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="257855784"/>
-        <c:axId val="257855392"/>
+        <c:axId val="294338256"/>
+        <c:axId val="294337864"/>
       </c:lineChart>
       <c:valAx>
-        <c:axId val="257855392"/>
+        <c:axId val="294337864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2795,10 +3231,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2806,7 +3239,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:rPr lang="en-GB" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Ratio / Percentage</a:t>
                 </a:r>
               </a:p>
@@ -2828,10 +3265,7 @@
               <a:pPr>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2863,10 +3297,7 @@
             <a:pPr>
               <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2876,12 +3307,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257855784"/>
+        <c:crossAx val="294338256"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="257855784"/>
+        <c:axId val="294338256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,10 +3338,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2918,7 +3346,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:rPr lang="en-GB" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Simulation Number</a:t>
                 </a:r>
               </a:p>
@@ -2940,10 +3372,7 @@
               <a:pPr>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2974,10 +3403,7 @@
             <a:pPr>
               <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2987,7 +3413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257855392"/>
+        <c:crossAx val="294337864"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3071,7 +3497,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3263,11 +3689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257856568"/>
-        <c:axId val="257856960"/>
+        <c:axId val="294339040"/>
+        <c:axId val="294339432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257856568"/>
+        <c:axId val="294339040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3293,10 +3719,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3304,14 +3727,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Number</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> of Steps 'Giving up' required to become a non-smoker</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1200"/>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3331,10 +3766,7 @@
               <a:pPr>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3366,10 +3798,7 @@
             <a:pPr>
               <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3379,12 +3808,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257856960"/>
+        <c:crossAx val="294339432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257856960"/>
+        <c:axId val="294339432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3410,10 +3839,7 @@
                 <a:pPr>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3421,7 +3847,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:rPr lang="en-GB" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>% Non-smokers</a:t>
                 </a:r>
               </a:p>
@@ -3443,10 +3873,7 @@
               <a:pPr>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3478,10 +3905,7 @@
             <a:pPr>
               <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3491,7 +3915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257856568"/>
+        <c:crossAx val="294339040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3528,449 +3952,6 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface=""/>
-                <a:cs typeface=""/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface=""/>
-                <a:cs typeface=""/>
-              </a:rPr>
-              <a:t>Scale-Free Simulation Runs</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$I$3:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>507</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>782</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$L$3:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>27123</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50359</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58171</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>92821</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>111926</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>167221</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>184355</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>309941</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="257858136"/>
-        <c:axId val="257857744"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="257857744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9528" cap="flat">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:tabLst/>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface=""/>
-                    <a:cs typeface=""/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFillTx/>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface=""/>
-                    <a:cs typeface=""/>
-                  </a:rPr>
-                  <a:t>Time Taken (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9528" cap="flat">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface=""/>
-                <a:cs typeface=""/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="257858136"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="257858136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9528" cap="flat">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:tabLst/>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface=""/>
-                    <a:cs typeface=""/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:uFillTx/>
-                    <a:latin typeface="Calibri"/>
-                    <a:ea typeface=""/>
-                    <a:cs typeface=""/>
-                  </a:rPr>
-                  <a:t>Number of Nodes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9528" cap="flat">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface=""/>
-                <a:cs typeface=""/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="257857744"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9528" cap="flat">
-      <a:noFill/>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-        <a:lnSpc>
-          <a:spcPct val="100000"/>
-        </a:lnSpc>
-        <a:spcBef>
-          <a:spcPts val="0"/>
-        </a:spcBef>
-        <a:spcAft>
-          <a:spcPts val="0"/>
-        </a:spcAft>
-        <a:tabLst/>
-        <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Calibri"/>
-          <a:ea typeface=""/>
-          <a:cs typeface=""/>
-        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -5668,10 +5649,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133353</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114303</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="13424478" cy="7067547"/>
     <xdr:graphicFrame macro="">
@@ -5695,16 +5676,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5727,10 +5708,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="13424474" cy="7058025"/>
     <xdr:graphicFrame macro="">
@@ -5754,10 +5735,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>48889</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29839</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="13420725" cy="7066286"/>
     <xdr:graphicFrame macro="">
@@ -5781,15 +5762,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>128762</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="13420725" cy="7077075"/>
+    <xdr:ext cx="13432552" cy="7062613"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="2" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5808,9 +5789,36 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="13420725" cy="7077075"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="13401675" cy="7077075"/>
@@ -5827,7 +5835,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5859,39 +5867,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>426323</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>119237</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="13432552" cy="7062613"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7228,7 +7209,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
